--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1195" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A22A832E-36CB-458D-A36F-EC96605BADCC}"/>
+  <xr:revisionPtr revIDLastSave="1200" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD967E35-B072-4F76-A488-600EAEC7D6DF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2009,6 +2009,9 @@
       <c r="C103" s="4">
         <v>45086</v>
       </c>
+      <c r="D103" s="4">
+        <v>45093</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
@@ -2020,6 +2023,9 @@
       <c r="C104" s="6">
         <v>-157000</v>
       </c>
+      <c r="D104" s="6">
+        <v>-156000</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
@@ -2031,6 +2037,9 @@
       <c r="C105" s="7">
         <v>310000</v>
       </c>
+      <c r="D105" s="7">
+        <v>317000</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
@@ -2042,6 +2051,9 @@
       <c r="C106" s="6">
         <v>461000</v>
       </c>
+      <c r="D106" s="6">
+        <v>466000</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
@@ -2054,6 +2066,10 @@
       <c r="C107" s="8">
         <f>C104+C105-C106</f>
         <v>-308000</v>
+      </c>
+      <c r="D107" s="8">
+        <f>D104+D105-D106</f>
+        <v>-305000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1200" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD967E35-B072-4F76-A488-600EAEC7D6DF}"/>
+  <xr:revisionPtr revIDLastSave="1205" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D48F6F6-C9A2-4E10-882F-224181F761C0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2012,6 +2012,9 @@
       <c r="D103" s="4">
         <v>45093</v>
       </c>
+      <c r="E103" s="4">
+        <v>45100</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
@@ -2026,6 +2029,9 @@
       <c r="D104" s="6">
         <v>-156000</v>
       </c>
+      <c r="E104" s="6">
+        <v>-155000</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
@@ -2040,6 +2046,9 @@
       <c r="D105" s="7">
         <v>317000</v>
       </c>
+      <c r="E105" s="7">
+        <v>325000</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
@@ -2054,6 +2063,9 @@
       <c r="D106" s="6">
         <v>466000</v>
       </c>
+      <c r="E106" s="6">
+        <v>468000</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
@@ -2070,6 +2082,10 @@
       <c r="D107" s="8">
         <f>D104+D105-D106</f>
         <v>-305000</v>
+      </c>
+      <c r="E107" s="8">
+        <f>E104+E105-E106</f>
+        <v>-298000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1205" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D48F6F6-C9A2-4E10-882F-224181F761C0}"/>
+  <xr:revisionPtr revIDLastSave="1214" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B95544F-AFD2-4640-A131-3900B8ADDDA9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2088,6 +2088,63 @@
         <v>-298000</v>
       </c>
     </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="4">
+        <v>45107</v>
+      </c>
+      <c r="C109" s="4">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="6">
+        <v>-239000</v>
+      </c>
+      <c r="C110" s="6">
+        <v>-237000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="7">
+        <v>325000</v>
+      </c>
+      <c r="C111" s="7">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="6">
+        <v>491000</v>
+      </c>
+      <c r="C112" s="6">
+        <v>502000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="8">
+        <f>B110+B111-B112</f>
+        <v>-405000</v>
+      </c>
+      <c r="C113" s="8">
+        <f>C110+C111-C112</f>
+        <v>-414000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1214" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B95544F-AFD2-4640-A131-3900B8ADDDA9}"/>
+  <xr:revisionPtr revIDLastSave="1218" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE0217A-D1CA-42F3-B778-C87544AFFE78}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2098,6 +2098,9 @@
       <c r="C109" s="4">
         <v>45114</v>
       </c>
+      <c r="D109" s="4">
+        <v>45121</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
@@ -2109,6 +2112,9 @@
       <c r="C110" s="6">
         <v>-237000</v>
       </c>
+      <c r="D110" s="6">
+        <v>-242000</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
@@ -2120,6 +2126,9 @@
       <c r="C111" s="7">
         <v>325000</v>
       </c>
+      <c r="D111" s="7">
+        <v>325000</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
@@ -2131,8 +2140,11 @@
       <c r="C112" s="6">
         <v>502000</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="6">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
@@ -2143,6 +2155,10 @@
       <c r="C113" s="8">
         <f>C110+C111-C112</f>
         <v>-414000</v>
+      </c>
+      <c r="D113" s="8">
+        <f>D110+D111-D112</f>
+        <v>-427000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1218" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE0217A-D1CA-42F3-B778-C87544AFFE78}"/>
+  <xr:revisionPtr revIDLastSave="1238" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFEB2B9C-DDC7-42C6-A17A-8E59D96D37D2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2101,6 +2101,9 @@
       <c r="D109" s="4">
         <v>45121</v>
       </c>
+      <c r="E109" s="4">
+        <v>45128</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
@@ -2115,6 +2118,9 @@
       <c r="D110" s="6">
         <v>-242000</v>
       </c>
+      <c r="E110" s="6">
+        <v>-238000</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
@@ -2129,6 +2135,9 @@
       <c r="D111" s="7">
         <v>325000</v>
       </c>
+      <c r="E111" s="7">
+        <v>325000</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
@@ -2143,8 +2152,11 @@
       <c r="D112" s="6">
         <v>510000</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" s="6">
+        <v>579000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
@@ -2159,6 +2171,99 @@
       <c r="D113" s="8">
         <f>D110+D111-D112</f>
         <v>-427000</v>
+      </c>
+      <c r="E113" s="8">
+        <f>E110+E111-E112</f>
+        <v>-492000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="4">
+        <v>45134</v>
+      </c>
+      <c r="C115" s="4">
+        <v>45149</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45156</v>
+      </c>
+      <c r="E115" s="4">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="6">
+        <v>-238000</v>
+      </c>
+      <c r="C116" s="6">
+        <v>-238000</v>
+      </c>
+      <c r="D116" s="6">
+        <v>-223000</v>
+      </c>
+      <c r="E116" s="6">
+        <v>-222000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="7">
+        <v>325000</v>
+      </c>
+      <c r="C117" s="7">
+        <v>325000</v>
+      </c>
+      <c r="D117" s="7">
+        <v>325000</v>
+      </c>
+      <c r="E117" s="7">
+        <v>326000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="6">
+        <v>586000</v>
+      </c>
+      <c r="C118" s="6">
+        <v>766000</v>
+      </c>
+      <c r="D118" s="6">
+        <v>768000</v>
+      </c>
+      <c r="E118" s="6">
+        <v>932000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="8">
+        <f>B116+B117-B118</f>
+        <v>-499000</v>
+      </c>
+      <c r="C119" s="8">
+        <f>C116+C117-C118</f>
+        <v>-679000</v>
+      </c>
+      <c r="D119" s="8">
+        <f>D116+D117-D118</f>
+        <v>-666000</v>
+      </c>
+      <c r="E119" s="8">
+        <f>E116+E117-E118</f>
+        <v>-828000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1238" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFEB2B9C-DDC7-42C6-A17A-8E59D96D37D2}"/>
+  <xr:revisionPtr revIDLastSave="1267" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5EFEA1-91A8-4F23-B58D-879F042D76B7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2266,6 +2269,168 @@
         <v>-828000</v>
       </c>
     </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="4">
+        <v>45170</v>
+      </c>
+      <c r="C121" s="4">
+        <v>45177</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45184</v>
+      </c>
+      <c r="E121" s="4">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="6">
+        <v>-220000</v>
+      </c>
+      <c r="C122" s="6">
+        <v>-219000</v>
+      </c>
+      <c r="D122" s="6">
+        <v>-219000</v>
+      </c>
+      <c r="E122" s="6">
+        <v>-219000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7">
+        <v>326000</v>
+      </c>
+      <c r="C123" s="7">
+        <v>407000</v>
+      </c>
+      <c r="D123" s="7">
+        <v>427000</v>
+      </c>
+      <c r="E123" s="7">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="6">
+        <v>948000</v>
+      </c>
+      <c r="C124" s="6">
+        <v>948000</v>
+      </c>
+      <c r="D124" s="6">
+        <v>948000</v>
+      </c>
+      <c r="E124" s="6">
+        <v>969000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="8">
+        <f>B122+B123-B124</f>
+        <v>-842000</v>
+      </c>
+      <c r="C125" s="8">
+        <f>C122+C123-C124</f>
+        <v>-760000</v>
+      </c>
+      <c r="D125" s="8">
+        <f>D122+D123-D124</f>
+        <v>-740000</v>
+      </c>
+      <c r="E125" s="8">
+        <f>E122+E123-E124</f>
+        <v>-753000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="4">
+        <v>45198</v>
+      </c>
+      <c r="C127" s="4">
+        <v>45205</v>
+      </c>
+      <c r="D127" s="4">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="6">
+        <v>-216000</v>
+      </c>
+      <c r="C128" s="6">
+        <v>-219000</v>
+      </c>
+      <c r="D128" s="6">
+        <v>-216000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="7">
+        <v>435000</v>
+      </c>
+      <c r="C129" s="7">
+        <v>435000</v>
+      </c>
+      <c r="D129" s="7">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="6">
+        <v>982000</v>
+      </c>
+      <c r="C130" s="6">
+        <v>992000</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1009000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="8">
+        <f>B128+B129-B130</f>
+        <v>-763000</v>
+      </c>
+      <c r="C131" s="8">
+        <f>C128+C129-C130</f>
+        <v>-776000</v>
+      </c>
+      <c r="D131" s="8">
+        <f>D128+D129-D130</f>
+        <v>-790000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
